--- a/conclusion_ab.xlsx
+++ b/conclusion_ab.xlsx
@@ -466,10 +466,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8600000143051147</v>
+        <v>0.8762500286102295</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.8700000047683716</v>
       </c>
     </row>
     <row r="3">
@@ -483,10 +483,10 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8862500190734863</v>
+        <v>0.8774999976158142</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8899999856948853</v>
+        <v>0.8650000095367432</v>
       </c>
     </row>
     <row r="4">
@@ -500,10 +500,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9037500023841858</v>
+        <v>0.8887500166893005</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8999999761581421</v>
+        <v>0.8849999904632568</v>
       </c>
     </row>
     <row r="5">
@@ -517,10 +517,10 @@
         <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9125000238418579</v>
+        <v>0.9049999713897705</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9100000262260437</v>
+        <v>0.8999999761581421</v>
       </c>
     </row>
     <row r="6">
@@ -534,10 +534,10 @@
         <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>0.90625</v>
+        <v>0.8974999785423279</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9150000214576721</v>
+        <v>0.9100000262260437</v>
       </c>
     </row>
     <row r="7">
@@ -554,7 +554,7 @@
         <v>0.9162499904632568</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9200000166893005</v>
       </c>
     </row>
     <row r="8">
@@ -568,10 +568,10 @@
         <v>128</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9137499928474426</v>
+        <v>0.8824999928474426</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9200000166893005</v>
+        <v>0.8849999904632568</v>
       </c>
     </row>
     <row r="9">
@@ -585,10 +585,10 @@
         <v>256</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9150000214576721</v>
+        <v>0.9012500047683716</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9100000262260437</v>
       </c>
     </row>
     <row r="10">
@@ -602,10 +602,10 @@
         <v>512</v>
       </c>
       <c r="D10" t="n">
-        <v>0.925000011920929</v>
+        <v>0.9087499976158142</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9049999713897705</v>
       </c>
     </row>
     <row r="11">
@@ -619,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8999999761581421</v>
+        <v>0.8974999785423279</v>
       </c>
       <c r="E11" t="n">
         <v>0.8949999809265137</v>
@@ -636,10 +636,10 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9287499785423279</v>
+        <v>0.9112499952316284</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9200000166893005</v>
       </c>
     </row>
     <row r="13">
@@ -653,10 +653,10 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.918749988079071</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.925000011920929</v>
       </c>
     </row>
     <row r="14">
@@ -670,10 +670,10 @@
         <v>16</v>
       </c>
       <c r="D14" t="n">
-        <v>0.956250011920929</v>
+        <v>0.9162499904632568</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9300000071525574</v>
       </c>
     </row>
     <row r="15">
@@ -687,10 +687,10 @@
         <v>32</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9587500095367432</v>
+        <v>0.9287499785423279</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9599999785423279</v>
+        <v>0.925000011920929</v>
       </c>
     </row>
     <row r="16">
@@ -704,10 +704,10 @@
         <v>64</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.9325000047683716</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.9599999785423279</v>
       </c>
     </row>
     <row r="17">
@@ -721,10 +721,10 @@
         <v>128</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9325000047683716</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.9399999976158142</v>
       </c>
     </row>
     <row r="18">
@@ -738,10 +738,10 @@
         <v>256</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9637500047683716</v>
+        <v>0.9387500286102295</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.9599999785423279</v>
       </c>
     </row>
     <row r="19">
@@ -755,10 +755,10 @@
         <v>512</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9637500047683716</v>
+        <v>0.9362499713897705</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.949999988079071</v>
       </c>
     </row>
     <row r="20">
@@ -772,10 +772,10 @@
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9162499904632568</v>
+        <v>0.8862500190734863</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9200000166893005</v>
+        <v>0.8899999856948853</v>
       </c>
     </row>
     <row r="21">
@@ -789,10 +789,10 @@
         <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9337499737739563</v>
+        <v>0.9162499904632568</v>
       </c>
       <c r="E21" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9150000214576721</v>
       </c>
     </row>
     <row r="22">
@@ -806,10 +806,10 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9175000190734863</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9200000166893005</v>
       </c>
     </row>
     <row r="23">
@@ -823,10 +823,10 @@
         <v>16</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9587500095367432</v>
+        <v>0.9262499809265137</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.9350000023841858</v>
       </c>
     </row>
     <row r="24">
@@ -840,10 +840,10 @@
         <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9624999761581421</v>
+        <v>0.9375</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.9449999928474426</v>
       </c>
     </row>
     <row r="25">
@@ -857,10 +857,10 @@
         <v>64</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9587500095367432</v>
+        <v>0.9287499785423279</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9599999785423279</v>
+        <v>0.949999988079071</v>
       </c>
     </row>
     <row r="26">
@@ -874,10 +874,10 @@
         <v>128</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9662500023841858</v>
+        <v>0.9337499737739563</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9599999785423279</v>
+        <v>0.949999988079071</v>
       </c>
     </row>
     <row r="27">
@@ -891,10 +891,10 @@
         <v>256</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9624999761581421</v>
+        <v>0.9362499713897705</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.9549999833106995</v>
       </c>
     </row>
     <row r="28">
@@ -908,10 +908,10 @@
         <v>512</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9524999856948853</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.9549999833106995</v>
       </c>
     </row>
     <row r="29">
@@ -925,10 +925,10 @@
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9312499761581421</v>
+        <v>0.8899999856948853</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.8999999761581421</v>
       </c>
     </row>
     <row r="30">
@@ -942,10 +942,10 @@
         <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9225000143051147</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.9300000071525574</v>
       </c>
     </row>
     <row r="31">
@@ -959,10 +959,10 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9537500143051147</v>
+        <v>0.9237499833106995</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.949999988079071</v>
       </c>
     </row>
     <row r="32">
@@ -976,10 +976,10 @@
         <v>16</v>
       </c>
       <c r="D32" t="n">
-        <v>0.956250011920929</v>
+        <v>0.9262499809265137</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.9549999833106995</v>
       </c>
     </row>
     <row r="33">
@@ -993,10 +993,10 @@
         <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9612500071525574</v>
+        <v>0.9312499761581421</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9599999785423279</v>
+        <v>0.9549999833106995</v>
       </c>
     </row>
     <row r="34">
@@ -1010,10 +1010,10 @@
         <v>64</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9624999761581421</v>
+        <v>0.9287499785423279</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.9449999928474426</v>
       </c>
     </row>
     <row r="35">
@@ -1027,10 +1027,10 @@
         <v>128</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9712499976158142</v>
+        <v>0.9375</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.949999988079071</v>
       </c>
     </row>
     <row r="36">
@@ -1044,10 +1044,10 @@
         <v>256</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.9424999952316284</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.9449999928474426</v>
       </c>
     </row>
     <row r="37">
@@ -1061,10 +1061,10 @@
         <v>512</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9712499976158142</v>
+        <v>0.9474999904632568</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9549999833106995</v>
       </c>
     </row>
     <row r="38">
@@ -1078,10 +1078,10 @@
         <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9012500047683716</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9350000023841858</v>
       </c>
     </row>
     <row r="39">
@@ -1095,10 +1095,10 @@
         <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9112499952316284</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9599999785423279</v>
+        <v>0.9350000023841858</v>
       </c>
     </row>
     <row r="40">
@@ -1112,10 +1112,10 @@
         <v>8</v>
       </c>
       <c r="D40" t="n">
-        <v>0.956250011920929</v>
+        <v>0.9275000095367432</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.9399999976158142</v>
       </c>
     </row>
     <row r="41">
@@ -1129,10 +1129,10 @@
         <v>16</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9624999761581421</v>
+        <v>0.9287499785423279</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9599999785423279</v>
+        <v>0.949999988079071</v>
       </c>
     </row>
     <row r="42">
@@ -1146,10 +1146,10 @@
         <v>32</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9599999785423279</v>
+        <v>0.9375</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.9549999833106995</v>
       </c>
     </row>
     <row r="43">
@@ -1163,10 +1163,10 @@
         <v>64</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9662500023841858</v>
+        <v>0.9350000023841858</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.9549999833106995</v>
       </c>
     </row>
     <row r="44">
@@ -1180,10 +1180,10 @@
         <v>128</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9674999713897705</v>
+        <v>0.9387500286102295</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.9599999785423279</v>
       </c>
     </row>
     <row r="45">
@@ -1197,10 +1197,10 @@
         <v>256</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9737499952316284</v>
+        <v>0.9487500190734863</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9549999833106995</v>
       </c>
     </row>
     <row r="46">
@@ -1214,10 +1214,10 @@
         <v>512</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9412500262260437</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.949999988079071</v>
       </c>
     </row>
     <row r="47">
@@ -1231,10 +1231,10 @@
         <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9012500047683716</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9200000166893005</v>
+        <v>0.8849999904632568</v>
       </c>
     </row>
     <row r="48">
@@ -1248,10 +1248,10 @@
         <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9512500166893005</v>
+        <v>0.9237499833106995</v>
       </c>
       <c r="E48" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9350000023841858</v>
       </c>
     </row>
     <row r="49">
@@ -1265,10 +1265,10 @@
         <v>8</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9312499761581421</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.9449999928474426</v>
       </c>
     </row>
     <row r="50">
@@ -1282,10 +1282,10 @@
         <v>16</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9624999761581421</v>
+        <v>0.9300000071525574</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.9549999833106995</v>
       </c>
     </row>
     <row r="51">
@@ -1299,10 +1299,10 @@
         <v>32</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9587500095367432</v>
+        <v>0.9350000023841858</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.9549999833106995</v>
       </c>
     </row>
     <row r="52">
@@ -1316,10 +1316,10 @@
         <v>64</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.9375</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.949999988079071</v>
       </c>
     </row>
     <row r="53">
@@ -1333,10 +1333,10 @@
         <v>128</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.9424999952316284</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9599999785423279</v>
+        <v>0.9549999833106995</v>
       </c>
     </row>
     <row r="54">
@@ -1350,10 +1350,10 @@
         <v>256</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9674999713897705</v>
+        <v>0.9462500214576721</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.9549999833106995</v>
       </c>
     </row>
     <row r="55">
@@ -1367,10 +1367,10 @@
         <v>512</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.9449999928474426</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.949999988079071</v>
       </c>
     </row>
     <row r="56">
@@ -1384,10 +1384,10 @@
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9412500262260437</v>
+        <v>0.8987500071525574</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.8999999761581421</v>
       </c>
     </row>
     <row r="57">
@@ -1401,10 +1401,10 @@
         <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>0.956250011920929</v>
+        <v>0.9212499856948853</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9350000023841858</v>
       </c>
     </row>
     <row r="58">
@@ -1418,10 +1418,10 @@
         <v>8</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9624999761581421</v>
+        <v>0.9275000095367432</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.9399999976158142</v>
       </c>
     </row>
     <row r="59">
@@ -1435,10 +1435,10 @@
         <v>16</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9587500095367432</v>
+        <v>0.9287499785423279</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9599999785423279</v>
+        <v>0.9449999928474426</v>
       </c>
     </row>
     <row r="60">
@@ -1452,10 +1452,10 @@
         <v>32</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.9399999976158142</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.949999988079071</v>
       </c>
     </row>
     <row r="61">
@@ -1469,10 +1469,10 @@
         <v>64</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9587500095367432</v>
+        <v>0.9375</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.9599999785423279</v>
       </c>
     </row>
     <row r="62">
@@ -1486,10 +1486,10 @@
         <v>128</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9637500047683716</v>
+        <v>0.9449999928474426</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.9599999785423279</v>
       </c>
     </row>
     <row r="63">
@@ -1503,10 +1503,10 @@
         <v>256</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9624999761581421</v>
+        <v>0.9462500214576721</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.949999988079071</v>
       </c>
     </row>
     <row r="64">
@@ -1520,10 +1520,10 @@
         <v>512</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9624999761581421</v>
+        <v>0.9449999928474426</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.9599999785423279</v>
       </c>
     </row>
     <row r="65">
@@ -1537,10 +1537,10 @@
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9375</v>
+        <v>0.9100000262260437</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9200000166893005</v>
       </c>
     </row>
     <row r="66">
@@ -1554,10 +1554,10 @@
         <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9599999785423279</v>
+        <v>0.9262499809265137</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.949999988079071</v>
       </c>
     </row>
     <row r="67">
@@ -1571,10 +1571,10 @@
         <v>8</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9237499833106995</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9599999785423279</v>
+        <v>0.9350000023841858</v>
       </c>
     </row>
     <row r="68">
@@ -1588,10 +1588,10 @@
         <v>16</v>
       </c>
       <c r="D68" t="n">
-        <v>0.956250011920929</v>
+        <v>0.9287499785423279</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.9549999833106995</v>
       </c>
     </row>
     <row r="69">
@@ -1605,10 +1605,10 @@
         <v>32</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9587500095367432</v>
+        <v>0.9375</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.9549999833106995</v>
       </c>
     </row>
     <row r="70">
@@ -1622,10 +1622,10 @@
         <v>64</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9587500095367432</v>
+        <v>0.9362499713897705</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.9549999833106995</v>
       </c>
     </row>
     <row r="71">
@@ -1639,10 +1639,10 @@
         <v>128</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9637500047683716</v>
+        <v>0.9362499713897705</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.9549999833106995</v>
       </c>
     </row>
     <row r="72">
@@ -1656,10 +1656,10 @@
         <v>256</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.9375</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.9549999833106995</v>
       </c>
     </row>
     <row r="73">
@@ -1673,10 +1673,10 @@
         <v>512</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.9412500262260437</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.9549999833106995</v>
       </c>
     </row>
     <row r="74">
@@ -1690,10 +1690,10 @@
         <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9137499928474426</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9399999976158142</v>
       </c>
     </row>
     <row r="75">
@@ -1707,7 +1707,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9537500143051147</v>
+        <v>0.918749988079071</v>
       </c>
       <c r="E75" t="n">
         <v>0.949999988079071</v>
@@ -1724,10 +1724,10 @@
         <v>8</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9587500095367432</v>
+        <v>0.9312499761581421</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9599999785423279</v>
+        <v>0.949999988079071</v>
       </c>
     </row>
     <row r="77">
@@ -1741,7 +1741,7 @@
         <v>16</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9587500095367432</v>
+        <v>0.9325000047683716</v>
       </c>
       <c r="E77" t="n">
         <v>0.9599999785423279</v>
@@ -1758,10 +1758,10 @@
         <v>32</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9624999761581421</v>
+        <v>0.9375</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9599999785423279</v>
+        <v>0.9549999833106995</v>
       </c>
     </row>
     <row r="79">
@@ -1775,7 +1775,7 @@
         <v>64</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9624999761581421</v>
+        <v>0.9362499713897705</v>
       </c>
       <c r="E79" t="n">
         <v>0.9649999737739563</v>
@@ -1792,10 +1792,10 @@
         <v>128</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9599999785423279</v>
+        <v>0.9362499713897705</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.9549999833106995</v>
       </c>
     </row>
     <row r="81">
@@ -1809,10 +1809,10 @@
         <v>256</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9612500071525574</v>
+        <v>0.9350000023841858</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.9549999833106995</v>
       </c>
     </row>
     <row r="82">
@@ -1826,10 +1826,10 @@
         <v>512</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9637500047683716</v>
+        <v>0.9375</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9649999737739563</v>
+        <v>0.9599999785423279</v>
       </c>
     </row>
   </sheetData>
